--- a/import-excel/uploads/candra.xlsx
+++ b/import-excel/uploads/candra.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hype GLK\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD2FE691-88AE-4B10-AFBE-819A58480F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AE9521-755F-4843-92EC-8DF11CABE078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{2901BEA5-C0CB-4B4E-8C1D-2AD13315FF19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{F0AD0C12-7078-426B-BA2D-B91064DF4FAA}"/>
   </bookViews>
   <sheets>
-    <sheet name="mari_belajar (8)" sheetId="1" r:id="rId1"/>
+    <sheet name="mari_belajar (10)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -68,6 +68,39 @@
   </si>
   <si>
     <t>Komputer Kls 1 (12 x P)</t>
+  </si>
+  <si>
+    <t>Radiman</t>
+  </si>
+  <si>
+    <t>Komputer Kls 3 (12 x P)</t>
+  </si>
+  <si>
+    <t>Sunday, 01/03/2026</t>
+  </si>
+  <si>
+    <t>Warna</t>
+  </si>
+  <si>
+    <t>Komputer Kls 3 (8 x P)</t>
+  </si>
+  <si>
+    <t>Isah</t>
+  </si>
+  <si>
+    <t>Perempuan</t>
+  </si>
+  <si>
+    <t>Ciparagejaya</t>
+  </si>
+  <si>
+    <t>Winah</t>
+  </si>
+  <si>
+    <t>Rakman</t>
+  </si>
+  <si>
+    <t>Warsan</t>
   </si>
 </sst>
 </file>
@@ -943,18 +976,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F76C90-8984-4365-9C4F-C06E7A1CAFB2}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFC0B323-A91F-4D34-82D5-0CAAC159421D}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -988,7 +1023,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1014,7 +1049,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
@@ -1035,6 +1070,214 @@
         <v>85776821436</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2">
+        <v>85776821436</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2">
+        <v>85776821436</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2">
+        <v>8577683276</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8577683276</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2">
+        <v>85776821436</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8577683276</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8577683276</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2">
+        <v>85776821436</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
